--- a/collection.xlsx
+++ b/collection.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[{'id': 13689077, 'symbol': 'ETH', 'address': '0x0000000000000000000000000000000000000000', 'image_url': 'https://storage.opensea.io/files/6f8e2979d428180222796ff4a33ab929.svg', 'name': 'Ether', 'decimals': 18, 'eth_price': 1.0, 'usd_price': 2027.53}, {'id': 12182941, 'symbol': 'DAI', 'address': '0x6b175474e89094c44da98b954eedeac495271d0f', 'image_url': 'https://storage.opensea.io/files/8ef8fb3fe707f693e57cdbfea130c24c.svg', 'name': 'Dai Stablecoin', 'decimals': 18, 'eth_price': 0.0004932109512559617, 'usd_price': 1.0}, {'id': 4645681, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': 1.0, 'usd_price': 2027.53}, {'id': 4403908, 'symbol': 'USDC', 'address': '0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48', 'image_url': 'https://storage.opensea.io/files/749015f009a66abcb3bbb3502ae2f1ce.svg', 'name': 'USD Coin', 'decimals': 6, 'eth_price': 0.0004930851824633914, 'usd_price': 0.999745}]</t>
+          <t>[{'id': 13689077, 'symbol': 'ETH', 'address': '0x0000000000000000000000000000000000000000', 'image_url': 'https://storage.opensea.io/files/6f8e2979d428180222796ff4a33ab929.svg', 'name': 'Ether', 'decimals': 18, 'eth_price': 1.0, 'usd_price': 2064.03}, {'id': 12182941, 'symbol': 'DAI', 'address': '0x6b175474e89094c44da98b954eedeac495271d0f', 'image_url': 'https://storage.opensea.io/files/8ef8fb3fe707f693e57cdbfea130c24c.svg', 'name': 'Dai Stablecoin', 'decimals': 18, 'eth_price': 0.00048448908203853623, 'usd_price': 1.0}, {'id': 4645681, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': 1.0, 'usd_price': 2064.03}, {'id': 4403908, 'symbol': 'USDC', 'address': '0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48', 'image_url': 'https://storage.opensea.io/files/749015f009a66abcb3bbb3502ae2f1ce.svg', 'name': 'USD Coin', 'decimals': 6, 'eth_price': 0.0004842700929734548, 'usd_price': 0.999548}]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -824,46 +824,46 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>101.043394182309</v>
+        <v>117.664697575321</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.2418711860996363</v>
+        <v>0.6284829264734667</v>
       </c>
       <c r="AI2" t="n">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.3379377731849799</v>
+        <v>0.3711820112786152</v>
       </c>
       <c r="AK2" t="n">
-        <v>2048.79701789421</v>
+        <v>2104.73656844445</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>4214</v>
+        <v>4341</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.4861881864960157</v>
+        <v>0.4848506262253973</v>
       </c>
       <c r="AO2" t="n">
-        <v>2048.79701789421</v>
+        <v>2104.73656844445</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4214</v>
+        <v>4341</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.4861881864960157</v>
+        <v>0.4848506262253973</v>
       </c>
       <c r="AS2" t="n">
-        <v>2048.79701789421</v>
+        <v>2104.73656844445</v>
       </c>
       <c r="AT2" t="n">
-        <v>4215</v>
+        <v>4343</v>
       </c>
       <c r="AU2" t="n">
         <v>10000</v>
@@ -872,19 +872,19 @@
         <v>10000</v>
       </c>
       <c r="AW2" t="n">
-        <v>1889</v>
+        <v>1912</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.486072839358057</v>
+        <v>0.4846273470975017</v>
       </c>
       <c r="AY2" t="n">
         <v>2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4861.881864960157</v>
+        <v>4848.506262253974</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.23376140674071</v>
+        <v>0.269</v>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
